--- a/Практическая работа 8(2).xlsx
+++ b/Практическая работа 8(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Данил\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Данил\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -319,19 +319,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -343,6 +331,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,10 +893,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -959,11 +959,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -972,11 +972,11 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="5"/>
@@ -987,11 +987,11 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="5"/>
